--- a/NodeJs-Question.xlsx
+++ b/NodeJs-Question.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NodeJs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\NodeJs-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF5EAB-2C67-454A-AED6-0B9A9ABBE2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46FE0D-D05B-438C-BBC7-4C4B0F7D3D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="1" r:id="rId1"/>
-    <sheet name="curring" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="readLine" sheetId="3" r:id="rId2"/>
+    <sheet name="yield" sheetId="4" r:id="rId3"/>
+    <sheet name="template" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
   <si>
     <t>sync</t>
   </si>
@@ -424,13 +425,903 @@
   </si>
   <si>
     <t>Hoisting</t>
+  </si>
+  <si>
+    <t>process.stdin.resume();</t>
+  </si>
+  <si>
+    <r>
+      <t>process.stdin.setEncoding(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'utf-8'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> inputString = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> currentLine = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF137C36"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>process.stdin.on(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, inputStdin =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>    inputString += inputStdin;</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t>process.stdin.on(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'end'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, _ =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    inputString = inputString.trim().split(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'\n'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).map(string =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> string.trim();</t>
+    </r>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <t>    main();    </t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> readLine() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> inputString[currentLine++];</t>
+    </r>
+  </si>
+  <si>
+    <t>const person = "Mike";</t>
+  </si>
+  <si>
+    <t>const age = 28;</t>
+  </si>
+  <si>
+    <t>function myTag(strings, personExp, ageExp) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const str0 = strings[0]; // "That "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const str1 = strings[1]; // " is a "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const str2 = strings[2]; // "."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const ageStr = ageExp &lt; 100 ? "youngster" : "centenarian";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // We can even return a string built using a template literal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return `${str0}${personExp}${str1}${ageStr}${str2}`;</t>
+  </si>
+  <si>
+    <t>const output = myTag`That ${person} is a ${age}.`;</t>
+  </si>
+  <si>
+    <t>console.log(output);</t>
+  </si>
+  <si>
+    <t>// That Mike is a youngster.</t>
+  </si>
+  <si>
+    <t>Template Literal</t>
+  </si>
+  <si>
+    <t>function recursive(strings, ...values) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log(strings, values);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return recursive;</t>
+  </si>
+  <si>
+    <t>recursive`Hello``World`;</t>
+  </si>
+  <si>
+    <t>// [ 'Hello' ] []</t>
+  </si>
+  <si>
+    <t>// [ 'World' ] []</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> show() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'show function'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> show; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF007400"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// logs show function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>``</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> obj = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA0D91"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA0D91"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>yield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> keyword is used to resume or pause a generator function asynchronously. A generator function is just like a normal function but the difference is that whenever the function is returning any value, it does it with the help of ‘yield’ keyword instead of return it. Yield can’t be called from nested functions or from callbacks. The yield expression returns an object with two properties, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“value”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> which is the actual value and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“done”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> which is a boolean value, it returns </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> when generator function is full completed else it returns false. If we pause the yield expression, the generator function will also get paused and resumes only when we call the next() method. When the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>next()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> method is encountered the function keeps on working until it faces another yield or returns expression.</t>
+    </r>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* showPrices(i) { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(i &lt; 3) { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">yield i++; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">//creating an object for our function showPrices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">const gfg = showPrices(0);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//return 0 because 0 value is passed to the showPrices yield expression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log(gfg.next().value);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// return 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//return 2 </t>
+  </si>
+  <si>
+    <t>console.log(gfg.next().value); </t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* geeksforGeeks() { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/*expression paused here and return </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value is undefined as nothing is declared*/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">yield;  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">//wait for next() to finish </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gfg(yield </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Welcome to GFG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gfg(x) { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Hello World "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, x) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">generator = geeksforGeeks(); </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">//return undefined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log(generator.next());  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//return Welcome to GFG  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*done remains false as we have not called next  </t>
+  </si>
+  <si>
+    <t>so that "Hello World" is still left there to process*/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +1369,130 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF137C36"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Var(--font-code)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAA0D91"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC41A16"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF007400"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C00CF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF75715E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE6DB74"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +1511,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -639,11 +1658,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -664,7 +1720,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -678,6 +1733,60 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1712,6 +2821,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5572125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6448547</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C7F5D4-A683-2C74-9816-3F8D1C967A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2085975"/>
+          <a:ext cx="876422" cy="1324160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4839280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1619342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC82F5C-0CFB-8C1C-5281-5B67FEC69AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="962025"/>
+          <a:ext cx="4153480" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1977,22 +3179,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2030,25 +3232,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="1" customFormat="1"/>
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" s="1" customFormat="1"/>
+    <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="1" customFormat="1"/>
+    <row r="60" spans="1:14" ht="15.75" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="D61" s="4" t="s">
         <v>11</v>
       </c>
@@ -2065,7 +3267,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="D62" s="7" t="s">
         <v>12</v>
       </c>
@@ -2082,7 +3284,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="D63" s="7" t="s">
         <v>13</v>
       </c>
@@ -2099,7 +3301,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="D64" s="7"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -2114,7 +3316,7 @@
       <c r="M64" s="8"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:14">
       <c r="D65" s="7" t="s">
         <v>14</v>
       </c>
@@ -2129,7 +3331,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:14">
       <c r="D66" s="7" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +3348,7 @@
       <c r="M66" s="8"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:14">
       <c r="D67" s="7" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +3365,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:14">
       <c r="D68" s="7"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -2178,7 +3380,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:14">
       <c r="D69" s="7" t="s">
         <v>17</v>
       </c>
@@ -2195,7 +3397,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:14">
       <c r="D70" s="7" t="s">
         <v>18</v>
       </c>
@@ -2212,7 +3414,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:14">
       <c r="D71" s="7" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +3431,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:14">
       <c r="D72" s="7"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -2244,7 +3446,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:14">
       <c r="D73" s="7" t="s">
         <v>20</v>
       </c>
@@ -2261,7 +3463,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:14">
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -2274,7 +3476,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:14" ht="15.75" thickBot="1">
       <c r="D75" s="10" t="s">
         <v>21</v>
       </c>
@@ -2291,7 +3493,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:14">
       <c r="K76" s="7" t="s">
         <v>18</v>
       </c>
@@ -2299,7 +3501,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:14">
       <c r="K77" s="7" t="s">
         <v>19</v>
       </c>
@@ -2307,13 +3509,13 @@
       <c r="M77" s="8"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:14">
       <c r="K78" s="7"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:14">
       <c r="K79" s="7" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +3523,7 @@
       <c r="M79" s="8"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:14">
       <c r="K80" s="7" t="s">
         <v>33</v>
       </c>
@@ -2329,13 +3531,13 @@
       <c r="M80" s="8"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="K81" s="7"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="K82" s="7" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +3545,7 @@
       <c r="M82" s="8"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15.75" thickBot="1">
       <c r="K83" s="10" t="s">
         <v>34</v>
       </c>
@@ -2351,33 +3553,33 @@
       <c r="M83" s="11"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="1" customFormat="1"/>
+    <row r="86" spans="1:14">
       <c r="A86" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" s="1" customFormat="1"/>
+    <row r="124" spans="1:11" ht="15.75" thickBot="1">
       <c r="A124" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="B125" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>39</v>
       </c>
@@ -2393,40 +3595,40 @@
       <c r="J127" s="17"/>
       <c r="K127" s="18"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="B128" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="B129" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="B131" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15.75" thickBot="1">
       <c r="B132" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15.75" thickBot="1">
       <c r="B133" s="7" t="s">
         <v>38</v>
       </c>
@@ -2441,57 +3643,57 @@
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="B134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="B135" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15.75" thickBot="1">
       <c r="B136" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="138" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="1" customFormat="1"/>
+    <row r="140" spans="1:10">
       <c r="A140" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" s="1" customFormat="1"/>
+    <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" s="1" customFormat="1"/>
+    <row r="234" spans="1:1">
       <c r="A234" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" s="1" customFormat="1"/>
+    <row r="274" spans="1:15" ht="15.75" thickBot="1">
       <c r="A274" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15">
       <c r="B275" s="4" t="s">
         <v>53</v>
       </c>
@@ -2507,101 +3709,101 @@
       <c r="N275" s="5"/>
       <c r="O275" s="6"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15">
       <c r="B276" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C276" s="20"/>
-      <c r="D276" s="20"/>
-      <c r="E276" s="20"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
       <c r="F276" s="9"/>
       <c r="K276" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L276" s="20"/>
-      <c r="M276" s="20"/>
-      <c r="N276" s="20"/>
+      <c r="L276" s="8"/>
+      <c r="M276" s="8"/>
+      <c r="N276" s="8"/>
       <c r="O276" s="9"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B277" s="21" t="s">
+    <row r="277" spans="1:15">
+      <c r="B277" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C277" s="20"/>
-      <c r="D277" s="20"/>
-      <c r="E277" s="20"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="8"/>
       <c r="F277" s="9"/>
-      <c r="K277" s="21" t="s">
+      <c r="K277" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L277" s="20"/>
-      <c r="M277" s="20"/>
-      <c r="N277" s="20"/>
+      <c r="L277" s="8"/>
+      <c r="M277" s="8"/>
+      <c r="N277" s="8"/>
       <c r="O277" s="9"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15">
       <c r="B278" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C278" s="20"/>
-      <c r="D278" s="20"/>
-      <c r="E278" s="20"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="8"/>
       <c r="F278" s="9"/>
       <c r="K278" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L278" s="20"/>
-      <c r="M278" s="20"/>
-      <c r="N278" s="20"/>
+      <c r="L278" s="8"/>
+      <c r="M278" s="8"/>
+      <c r="N278" s="8"/>
       <c r="O278" s="9"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15">
       <c r="B279" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C279" s="20"/>
-      <c r="D279" s="20"/>
-      <c r="E279" s="20"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="8"/>
       <c r="F279" s="9"/>
       <c r="K279" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L279" s="20"/>
-      <c r="M279" s="20"/>
-      <c r="N279" s="20"/>
+      <c r="L279" s="8"/>
+      <c r="M279" s="8"/>
+      <c r="N279" s="8"/>
       <c r="O279" s="9"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15">
       <c r="B280" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C280" s="20"/>
-      <c r="D280" s="20"/>
-      <c r="E280" s="20"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="8"/>
       <c r="F280" s="9"/>
       <c r="K280" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L280" s="20"/>
-      <c r="M280" s="20"/>
-      <c r="N280" s="20"/>
+      <c r="L280" s="8"/>
+      <c r="M280" s="8"/>
+      <c r="N280" s="8"/>
       <c r="O280" s="9"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15">
       <c r="B281" s="7"/>
-      <c r="C281" s="20"/>
-      <c r="D281" s="20"/>
-      <c r="E281" s="20"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
       <c r="F281" s="9"/>
       <c r="K281" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L281" s="20"/>
-      <c r="M281" s="20"/>
-      <c r="N281" s="20"/>
+      <c r="L281" s="8"/>
+      <c r="M281" s="8"/>
+      <c r="N281" s="8"/>
       <c r="O281" s="9"/>
     </row>
-    <row r="282" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="15.75" thickBot="1">
       <c r="B282" s="10" t="s">
         <v>57</v>
       </c>
@@ -2612,21 +3814,21 @@
       <c r="K282" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L282" s="20"/>
-      <c r="M282" s="20"/>
-      <c r="N282" s="20"/>
+      <c r="L282" s="8"/>
+      <c r="M282" s="8"/>
+      <c r="N282" s="8"/>
       <c r="O282" s="9"/>
     </row>
-    <row r="283" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="15.75" thickBot="1">
       <c r="K283" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L283" s="20"/>
-      <c r="M283" s="20"/>
-      <c r="N283" s="20"/>
+      <c r="L283" s="8"/>
+      <c r="M283" s="8"/>
+      <c r="N283" s="8"/>
       <c r="O283" s="9"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15">
       <c r="B284" s="4" t="s">
         <v>53</v>
       </c>
@@ -2640,95 +3842,95 @@
       <c r="K284" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L284" s="20"/>
-      <c r="M284" s="20"/>
-      <c r="N284" s="20"/>
+      <c r="L284" s="8"/>
+      <c r="M284" s="8"/>
+      <c r="N284" s="8"/>
       <c r="O284" s="9"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15">
       <c r="B285" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C285" s="20"/>
-      <c r="D285" s="20"/>
-      <c r="E285" s="20"/>
-      <c r="F285" s="20"/>
-      <c r="G285" s="20"/>
-      <c r="H285" s="20"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8"/>
       <c r="I285" s="9"/>
       <c r="K285" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L285" s="20"/>
-      <c r="M285" s="20"/>
-      <c r="N285" s="20"/>
+      <c r="L285" s="8"/>
+      <c r="M285" s="8"/>
+      <c r="N285" s="8"/>
       <c r="O285" s="9"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B286" s="21" t="s">
+    <row r="286" spans="1:15">
+      <c r="B286" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C286" s="20"/>
-      <c r="D286" s="20"/>
-      <c r="E286" s="20"/>
-      <c r="F286" s="20"/>
-      <c r="G286" s="20"/>
-      <c r="H286" s="20"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+      <c r="H286" s="8"/>
       <c r="I286" s="9"/>
       <c r="K286" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L286" s="20"/>
-      <c r="M286" s="20"/>
-      <c r="N286" s="20"/>
+      <c r="L286" s="8"/>
+      <c r="M286" s="8"/>
+      <c r="N286" s="8"/>
       <c r="O286" s="9"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15">
       <c r="B287" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C287" s="20"/>
-      <c r="D287" s="20"/>
-      <c r="E287" s="20"/>
-      <c r="F287" s="20"/>
-      <c r="G287" s="20"/>
-      <c r="H287" s="20"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+      <c r="H287" s="8"/>
       <c r="I287" s="9"/>
       <c r="K287" s="7"/>
-      <c r="L287" s="20"/>
-      <c r="M287" s="20"/>
-      <c r="N287" s="20"/>
+      <c r="L287" s="8"/>
+      <c r="M287" s="8"/>
+      <c r="N287" s="8"/>
       <c r="O287" s="9"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15">
       <c r="B288" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C288" s="20"/>
-      <c r="D288" s="20"/>
-      <c r="E288" s="20"/>
-      <c r="F288" s="20"/>
-      <c r="G288" s="20"/>
-      <c r="H288" s="20"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+      <c r="G288" s="8"/>
+      <c r="H288" s="8"/>
       <c r="I288" s="9"/>
       <c r="K288" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L288" s="20"/>
-      <c r="M288" s="20"/>
-      <c r="N288" s="20"/>
+      <c r="L288" s="8"/>
+      <c r="M288" s="8"/>
+      <c r="N288" s="8"/>
       <c r="O288" s="9"/>
     </row>
-    <row r="289" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" ht="15.75" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C289" s="20"/>
-      <c r="D289" s="20"/>
-      <c r="E289" s="20"/>
-      <c r="F289" s="20"/>
-      <c r="G289" s="20"/>
-      <c r="H289" s="20"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+      <c r="G289" s="8"/>
+      <c r="H289" s="8"/>
       <c r="I289" s="9"/>
       <c r="K289" s="10" t="s">
         <v>61</v>
@@ -2738,17 +3940,17 @@
       <c r="N289" s="11"/>
       <c r="O289" s="12"/>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27">
       <c r="B290" s="7"/>
-      <c r="C290" s="20"/>
-      <c r="D290" s="20"/>
-      <c r="E290" s="20"/>
-      <c r="F290" s="20"/>
-      <c r="G290" s="20"/>
-      <c r="H290" s="20"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="8"/>
+      <c r="H290" s="8"/>
       <c r="I290" s="9"/>
     </row>
-    <row r="291" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" ht="15.75" thickBot="1">
       <c r="B291" s="10" t="s">
         <v>61</v>
       </c>
@@ -2760,8 +3962,8 @@
       <c r="H291" s="11"/>
       <c r="I291" s="12"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="293" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="15.75" thickBot="1"/>
+    <row r="293" spans="1:27" ht="17.25">
       <c r="B293" s="4" t="s">
         <v>64</v>
       </c>
@@ -2773,7 +3975,7 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="22" t="s">
+      <c r="K293" s="21" t="s">
         <v>69</v>
       </c>
       <c r="L293" s="5"/>
@@ -2787,161 +3989,161 @@
       <c r="T293" s="5"/>
       <c r="U293" s="6"/>
     </row>
-    <row r="294" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="17.25">
       <c r="B294" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C294" s="20"/>
-      <c r="D294" s="20"/>
-      <c r="E294" s="20"/>
-      <c r="F294" s="20"/>
-      <c r="G294" s="20"/>
-      <c r="H294" s="20"/>
-      <c r="I294" s="20"/>
-      <c r="J294" s="20"/>
-      <c r="K294" s="23" t="s">
+      <c r="C294" s="8"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="8"/>
+      <c r="J294" s="8"/>
+      <c r="K294" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L294" s="20"/>
-      <c r="M294" s="20"/>
-      <c r="N294" s="20"/>
-      <c r="O294" s="20"/>
-      <c r="P294" s="20"/>
-      <c r="Q294" s="20"/>
-      <c r="R294" s="20"/>
-      <c r="S294" s="20"/>
-      <c r="T294" s="20"/>
+      <c r="L294" s="8"/>
+      <c r="M294" s="8"/>
+      <c r="N294" s="8"/>
+      <c r="O294" s="8"/>
+      <c r="P294" s="8"/>
+      <c r="Q294" s="8"/>
+      <c r="R294" s="8"/>
+      <c r="S294" s="8"/>
+      <c r="T294" s="8"/>
       <c r="U294" s="9"/>
     </row>
-    <row r="295" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="17.25">
       <c r="B295" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C295" s="20"/>
-      <c r="D295" s="20"/>
-      <c r="E295" s="20"/>
-      <c r="F295" s="20"/>
-      <c r="G295" s="20"/>
-      <c r="H295" s="20"/>
-      <c r="I295" s="20"/>
-      <c r="J295" s="20"/>
-      <c r="K295" s="23" t="s">
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="8"/>
+      <c r="H295" s="8"/>
+      <c r="I295" s="8"/>
+      <c r="J295" s="8"/>
+      <c r="K295" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="L295" s="20"/>
-      <c r="M295" s="20"/>
-      <c r="N295" s="20"/>
-      <c r="O295" s="20"/>
-      <c r="P295" s="20"/>
-      <c r="Q295" s="20"/>
-      <c r="R295" s="20"/>
-      <c r="S295" s="20"/>
-      <c r="T295" s="20"/>
+      <c r="L295" s="8"/>
+      <c r="M295" s="8"/>
+      <c r="N295" s="8"/>
+      <c r="O295" s="8"/>
+      <c r="P295" s="8"/>
+      <c r="Q295" s="8"/>
+      <c r="R295" s="8"/>
+      <c r="S295" s="8"/>
+      <c r="T295" s="8"/>
       <c r="U295" s="9"/>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27">
       <c r="B296" s="7"/>
-      <c r="C296" s="20"/>
-      <c r="D296" s="20"/>
-      <c r="E296" s="20"/>
-      <c r="F296" s="20"/>
-      <c r="G296" s="20"/>
-      <c r="H296" s="20"/>
-      <c r="I296" s="20"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+      <c r="G296" s="8"/>
+      <c r="H296" s="8"/>
+      <c r="I296" s="8"/>
       <c r="J296" s="9"/>
       <c r="K296" s="7"/>
-      <c r="L296" s="20"/>
-      <c r="M296" s="20"/>
-      <c r="N296" s="20"/>
-      <c r="O296" s="20"/>
-      <c r="P296" s="20"/>
-      <c r="Q296" s="20"/>
-      <c r="R296" s="20"/>
-      <c r="S296" s="20"/>
-      <c r="T296" s="20"/>
+      <c r="L296" s="8"/>
+      <c r="M296" s="8"/>
+      <c r="N296" s="8"/>
+      <c r="O296" s="8"/>
+      <c r="P296" s="8"/>
+      <c r="Q296" s="8"/>
+      <c r="R296" s="8"/>
+      <c r="S296" s="8"/>
+      <c r="T296" s="8"/>
       <c r="U296" s="9"/>
     </row>
-    <row r="297" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="21" t="s">
+    <row r="297" spans="1:27" ht="18" thickBot="1">
+      <c r="B297" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C297" s="20"/>
-      <c r="D297" s="20"/>
-      <c r="E297" s="20"/>
-      <c r="F297" s="20"/>
-      <c r="G297" s="20"/>
-      <c r="H297" s="20"/>
-      <c r="I297" s="20"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="8"/>
+      <c r="G297" s="8"/>
+      <c r="H297" s="8"/>
+      <c r="I297" s="8"/>
       <c r="J297" s="9"/>
-      <c r="K297" s="24" t="s">
+      <c r="K297" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L297" s="20"/>
-      <c r="M297" s="20"/>
-      <c r="N297" s="20"/>
-      <c r="O297" s="20"/>
-      <c r="P297" s="20"/>
-      <c r="Q297" s="20"/>
-      <c r="R297" s="20"/>
-      <c r="S297" s="20"/>
-      <c r="T297" s="20"/>
+      <c r="L297" s="8"/>
+      <c r="M297" s="8"/>
+      <c r="N297" s="8"/>
+      <c r="O297" s="8"/>
+      <c r="P297" s="8"/>
+      <c r="Q297" s="8"/>
+      <c r="R297" s="8"/>
+      <c r="S297" s="8"/>
+      <c r="T297" s="8"/>
       <c r="U297" s="9"/>
     </row>
-    <row r="298" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:27" ht="18" thickBot="1">
       <c r="B298" s="7"/>
-      <c r="C298" s="20"/>
-      <c r="D298" s="20"/>
-      <c r="E298" s="20"/>
-      <c r="F298" s="20"/>
-      <c r="G298" s="20"/>
-      <c r="H298" s="20"/>
-      <c r="I298" s="20"/>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="8"/>
+      <c r="G298" s="8"/>
+      <c r="H298" s="8"/>
+      <c r="I298" s="8"/>
       <c r="J298" s="9"/>
-      <c r="K298" s="25" t="s">
+      <c r="K298" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="L298" s="26"/>
-      <c r="M298" s="26"/>
-      <c r="N298" s="26"/>
-      <c r="O298" s="26"/>
-      <c r="P298" s="26"/>
-      <c r="Q298" s="26"/>
-      <c r="R298" s="26"/>
-      <c r="S298" s="26"/>
-      <c r="T298" s="26"/>
-      <c r="U298" s="26"/>
-      <c r="V298" s="26"/>
-      <c r="W298" s="26"/>
-      <c r="X298" s="26"/>
-      <c r="Y298" s="26"/>
-      <c r="Z298" s="26"/>
-      <c r="AA298" s="27"/>
-    </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L298" s="25"/>
+      <c r="M298" s="25"/>
+      <c r="N298" s="25"/>
+      <c r="O298" s="25"/>
+      <c r="P298" s="25"/>
+      <c r="Q298" s="25"/>
+      <c r="R298" s="25"/>
+      <c r="S298" s="25"/>
+      <c r="T298" s="25"/>
+      <c r="U298" s="25"/>
+      <c r="V298" s="25"/>
+      <c r="W298" s="25"/>
+      <c r="X298" s="25"/>
+      <c r="Y298" s="25"/>
+      <c r="Z298" s="25"/>
+      <c r="AA298" s="26"/>
+    </row>
+    <row r="299" spans="1:27">
       <c r="B299" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C299" s="20"/>
-      <c r="D299" s="20"/>
-      <c r="E299" s="20"/>
-      <c r="F299" s="20"/>
-      <c r="G299" s="20"/>
-      <c r="H299" s="20"/>
-      <c r="I299" s="20"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="8"/>
+      <c r="G299" s="8"/>
+      <c r="H299" s="8"/>
+      <c r="I299" s="8"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27">
       <c r="B300" s="7"/>
-      <c r="C300" s="20"/>
-      <c r="D300" s="20"/>
-      <c r="E300" s="20"/>
-      <c r="F300" s="20"/>
-      <c r="G300" s="20"/>
-      <c r="H300" s="20"/>
-      <c r="I300" s="20"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="8"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" ht="15.75" thickBot="1">
       <c r="B301" s="10" t="s">
         <v>68</v>
       </c>
@@ -2954,8 +4156,8 @@
       <c r="I301" s="11"/>
       <c r="J301" s="12"/>
     </row>
-    <row r="303" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" s="1" customFormat="1"/>
+    <row r="304" spans="1:27">
       <c r="A304" s="3" t="s">
         <v>74</v>
       </c>
@@ -2967,32 +4169,503 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254396B-295E-4AC2-9515-A5DB980E0878}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C89AD1-9BD8-44F9-A11F-6140F24D8EE1}">
+  <dimension ref="B1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:2">
+      <c r="B2" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B22" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C89AD1-9BD8-44F9-A11F-6140F24D8EE1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D0484-A26F-4A66-A8AD-66F18EA1A460}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="1" max="1" width="98.140625" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="82.42578125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="148.5">
+      <c r="A1" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="44"/>
+      <c r="C3" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="C21" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="C24" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254396B-295E-4AC2-9515-A5DB980E0878}">
+  <dimension ref="B1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="29"/>
+      <c r="D4" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="29"/>
+      <c r="F9" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B11" s="29"/>
+      <c r="F11" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="29"/>
+      <c r="F15" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="29"/>
+      <c r="F17" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B19" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1">
+      <c r="F20" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NodeJs-Question.xlsx
+++ b/NodeJs-Question.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\NodeJs-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46FE0D-D05B-438C-BBC7-4C4B0F7D3D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D70C3-1E05-4992-882C-621C71CD2784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="1" r:id="rId1"/>
     <sheet name="readLine" sheetId="3" r:id="rId2"/>
-    <sheet name="yield" sheetId="4" r:id="rId3"/>
-    <sheet name="template" sheetId="2" r:id="rId4"/>
+    <sheet name="readdirSync" sheetId="5" r:id="rId3"/>
+    <sheet name="yield" sheetId="4" r:id="rId4"/>
+    <sheet name="template" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="215">
   <si>
     <t>sync</t>
   </si>
@@ -1316,12 +1317,4204 @@
   <si>
     <t>so that "Hello World" is still left there to process*/</t>
   </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'fs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'path'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'folder'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contents:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> []</t>
+    </r>
+  </si>
+  <si>
+    <t>    };</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readdirSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>forEach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>statSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isDirectory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'file'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>size:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>statSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>size</t>
+    </r>
+  </si>
+  <si>
+    <t>            });</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'readline'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>createInterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stdin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stdout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Enter the directory path: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>existsSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Directory does not exist.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stringify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'readline'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>createInterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input:process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stdin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output:process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stdout</t>
+    </r>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <r>
+      <t>readline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Enter file path: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>existsSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`Directory path doesn't exists`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// console.log(getDirectoryInfo(directoryPath))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>writeFileSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__dirname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"file.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stringify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stdin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'process'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'node_modules'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>readdirSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>forEach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>statSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isDirectory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() ){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>itemPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>            })</t>
+  </si>
+  <si>
+    <t>    })</t>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>existsSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) ){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stringify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDirectoryInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directoryPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,6 +5681,72 @@
     <font>
       <sz val="11"/>
       <color rgb="FFE6DB74"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1699,7 +5958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1786,6 +6045,22 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4170,10 +8445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C89AD1-9BD8-44F9-A11F-6140F24D8EE1}">
-  <dimension ref="B1:B22"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4181,100 +8456,324 @@
     <col min="2" max="2" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:2">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:13">
       <c r="B2" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:13">
       <c r="B3" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="D3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="29"/>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="D4" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="D5" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="D6" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="29"/>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="D7" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="D8" s="50"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="D9" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="D10" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="D11" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="D12" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="D13" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="D14" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="D15" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="D16" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="D17" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="D18" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="29"/>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="D19" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="D20" s="50"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" thickBot="1">
+      <c r="D21" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1">
       <c r="B22" s="31" t="s">
         <v>13</v>
       </c>
@@ -4285,6 +8784,864 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4657FB-3D63-49C9-AFCA-9FA90EBD1396}">
+  <dimension ref="B2:M57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="116.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="50"/>
+      <c r="D5" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="50"/>
+      <c r="D13" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="50"/>
+      <c r="D19" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="50"/>
+      <c r="D33" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="50"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="50"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="50"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D0484-A26F-4A66-A8AD-66F18EA1A460}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -4491,11 +9848,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254396B-295E-4AC2-9515-A5DB980E0878}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
